--- a/BalanceSheet/NEM_bal.xlsx
+++ b/BalanceSheet/NEM_bal.xlsx
@@ -4881,7 +4881,7 @@
         <v>2986000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>4427000000.0</v>
+        <v>4382000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>4496000000.0</v>
@@ -5008,7 +5008,7 @@
         <v>6872000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>6909000000.0</v>
+        <v>6862000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>7365000000.0</v>
